--- a/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
+++ b/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="12">
   <si>
     <t>Payrolls Report</t>
   </si>
@@ -29,7 +29,25 @@
     <t>Amount(USD)</t>
   </si>
   <si>
-    <t>Kobe Bryant</t>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>hehe hehe</t>
+  </si>
+  <si>
+    <t>2016-05-18</t>
+  </si>
+  <si>
+    <t>Issued Times</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Department ID</t>
+  </si>
+  <si>
+    <t>team1</t>
   </si>
 </sst>
 </file>
@@ -46,10 +64,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="IMPACT"/>
-      <sz val="30.0"/>
+      <name val="Calibri"/>
+      <sz val="32.0"/>
       <b val="true"/>
-      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -119,16 +136,686 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1500.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
+++ b/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Payrolls Report</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>2016-05-01</t>
+  </si>
+  <si>
+    <t>Te St</t>
   </si>
   <si>
     <t>Issued Times</t>
@@ -149,19 +152,19 @@
         <v>4</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -190,15 +193,41 @@
         <v>1.0</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
         <v>6.0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0</v>
+        <v>2300.0</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
+++ b/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Payrolls Report</t>
   </si>
   <si>
-    <t>Divided By Payroll.</t>
+    <t>Period: ALL</t>
   </si>
   <si>
     <t>Employee Name</t>
@@ -32,6 +32,12 @@
     <t>Issue Date</t>
   </si>
   <si>
+    <t>Normal Attendance Days</t>
+  </si>
+  <si>
+    <t>Un-Normal Attendance Days</t>
+  </si>
+  <si>
     <t>Kobe Bryant</t>
   </si>
   <si>
@@ -39,18 +45,6 @@
   </si>
   <si>
     <t>Te St</t>
-  </si>
-  <si>
-    <t>Issued Times</t>
-  </si>
-  <si>
-    <t>Department Name</t>
-  </si>
-  <si>
-    <t>Department ID</t>
-  </si>
-  <si>
-    <t>RD</t>
   </si>
 </sst>
 </file>
@@ -124,111 +118,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+    <row r="3">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="3" t="s">
+    <row r="5">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>4</v>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
+      <c r="C6" t="n">
+        <v>11.0</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>10</v>
+      <c r="D6" t="n">
+        <v>1500.0</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>6</v>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2300.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="C7" t="n">
         <v>12.0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" t="n">
         <v>800.0</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.0</v>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
+++ b/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Payrolls Report</t>
   </si>
@@ -26,18 +26,21 @@
     <t>Employee ID</t>
   </si>
   <si>
+    <t>Base Salary(per day, USD)</t>
+  </si>
+  <si>
+    <t>Normal Attendance Days</t>
+  </si>
+  <si>
+    <t>Un-Normal Attendance Days</t>
+  </si>
+  <si>
     <t>Amount(USD)</t>
   </si>
   <si>
     <t>Issue Date</t>
   </si>
   <si>
-    <t>Normal Attendance Days</t>
-  </si>
-  <si>
-    <t>Un-Normal Attendance Days</t>
-  </si>
-  <si>
     <t>Kobe Bryant</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>Te St</t>
+  </si>
+  <si>
+    <t>Hint: Un-Normal Attendance Days include a person attend later, leav early end etc, in a day.</t>
   </si>
 </sst>
 </file>
@@ -142,33 +148,59 @@
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>11.0</v>
       </c>
       <c r="D6" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1500.0</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
+      <c r="H6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
       </c>
       <c r="D7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
         <v>800.0</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
+++ b/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Payrolls Report</t>
   </si>
   <si>
-    <t>Period: ALL</t>
+    <t>Period: 2016-06-03 ~ now</t>
   </si>
   <si>
     <t>Employee Name</t>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>Issue Date</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>2016-05-01</t>
-  </si>
-  <si>
-    <t>Te St</t>
   </si>
   <si>
     <t>Hint: Un-Normal Attendance Days include a person attend later, leav early end etc, in a day.</t>
@@ -152,55 +143,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="s">
+    <row r="7">
+      <c r="B7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
+++ b/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Payrolls Report</t>
   </si>
   <si>
-    <t>Period: 2016-06-03 ~ now</t>
+    <t>Period: ALL</t>
   </si>
   <si>
     <t>Employee Name</t>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>Issue Date</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>2016-05-01</t>
+  </si>
+  <si>
+    <t>Te St</t>
   </si>
   <si>
     <t>Hint: Un-Normal Attendance Days include a person attend later, leav early end etc, in a day.</t>
@@ -143,9 +152,55 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
+++ b/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Payrolls Report</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Te St</t>
+  </si>
+  <si>
+    <t>2016-06-01</t>
   </si>
   <si>
     <t>Hint: Un-Normal Attendance Days include a person attend later, leav early end etc, in a day.</t>
@@ -198,9 +201,55 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
+++ b/src/main/webapp/WEB-INF/files/Payroll Report.xlsx
@@ -41,13 +41,13 @@
     <t>Issue Date</t>
   </si>
   <si>
+    <t>Te St</t>
+  </si>
+  <si>
+    <t>2016-05-01</t>
+  </si>
+  <si>
     <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>2016-05-01</t>
-  </si>
-  <si>
-    <t>Te St</t>
   </si>
   <si>
     <t>2016-06-01</t>
@@ -160,19 +160,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
         <v>200.0</v>
       </c>
       <c r="E6" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1500.0</v>
+        <v>800.0</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -183,22 +183,22 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" t="n">
         <v>200.0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" t="n">
-        <v>800.0</v>
+        <v>500.0</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -206,19 +206,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D8" t="n">
         <v>200.0</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.0</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.0</v>
-      </c>
       <c r="G8" t="n">
-        <v>500.0</v>
+        <v>100.0</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -229,22 +229,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" t="n">
         <v>200.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="n">
         <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>100.0</v>
+        <v>1500.0</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
